--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure1.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure1.xlsx
@@ -34,46 +34,46 @@
     <t>readmitted</t>
   </si>
   <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>a1cresult</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
   <si>
     <t>diabetesmed</t>
   </si>
   <si>
-    <t>insulin</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>a1cresult</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>admission_type_id</t>
+    <t>max_glu_serum</t>
   </si>
   <si>
     <t>admission_source_id</t>
   </si>
   <si>
-    <t>diag_1</t>
-  </si>
-  <si>
     <t>discharge_disposition_id</t>
   </si>
   <si>
-    <t>max_glu_serum</t>
+    <t>number_inpatient</t>
   </si>
   <si>
     <t>number_emergency</t>
-  </si>
-  <si>
-    <t>number_inpatient</t>
   </si>
   <si>
     <t>number_outpatient</t>
@@ -82,10 +82,10 @@
     <t>time_in_hospital</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>number_diagnoses</t>
   </si>
   <si>
-    <t>number_diagnoses</t>
+    <t>num_medications</t>
   </si>
   <si>
     <t>num_lab_procedures</t>
@@ -94,10 +94,10 @@
     <t>num_procedures</t>
   </si>
   <si>
-    <t>max</t>
+    <t>avg</t>
   </si>
   <si>
-    <t>avg</t>
+    <t>max</t>
   </si>
   <si>
     <t>sum</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.353431084663929</v>
+        <v>1.29802840134333</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1.308124130745011</v>
+        <v>1.292503889618271</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -532,7 +532,7 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1.296323655384841</v>
+        <v>1.234426799696735</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -546,10 +546,10 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1.243963994245135</v>
+        <v>1.231083344667105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -563,10 +563,10 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1.186898604167339</v>
+        <v>1.195228609334394</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.169803946285164</v>
+        <v>1.174959988021434</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1.164720769122075</v>
+        <v>1.170010320318357</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9">
-        <v>1.164641094966035</v>
+        <v>1.167691470839957</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1.164506321150492</v>
+        <v>1.165063132842568</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.161394510621746</v>
+        <v>1.164506964722418</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -665,10 +665,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1.161382461462638</v>
+        <v>1.161605370367309</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1.155977156279789</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,10 +696,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>1.154700538379251</v>
@@ -713,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>1.154700538379251</v>
@@ -733,10 +733,10 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1.154700538379251</v>
+        <v>1.144571390574773</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.148542091597088</v>
+        <v>1.143543749793731</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1.133339925794555</v>
+        <v>1.137070487229922</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19">
-        <v>1.127312438205724</v>
+        <v>1.131484828879154</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.102789180755656</v>
+        <v>1.08628554766556</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9828394526283892</v>
+        <v>0.9821999172427126</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9805319309654845</v>
+        <v>0.978797091532831</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9772698170528042</v>
+        <v>0.9751386748817011</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9741680942008644</v>
+        <v>0.9737339517356333</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.969447186002839</v>
+        <v>0.9714093454354032</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9685354506819207</v>
+        <v>0.9676781971799479</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9677278255848618</v>
+        <v>0.9654237492555243</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -940,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9664708656063741</v>
+        <v>0.9652128492920102</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9661394821058783</v>
+        <v>0.9650215393901034</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -974,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9656584742162637</v>
+        <v>0.9649893575621852</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9655396693844349</v>
+        <v>0.9647545714779371</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -999,16 +999,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9584505469665048</v>
+        <v>0.9644828339410412</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>0.957489238291488</v>
+        <v>0.9335849502316228</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1033,16 +1033,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>0.9361832456988493</v>
+        <v>0.906923823984585</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1053,13 +1053,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35">
-        <v>0.9203579866168445</v>
+        <v>0.906923823984585</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1070,13 +1070,13 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36">
-        <v>0.896193330910576</v>
+        <v>0.7887577808002804</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1087,13 +1087,13 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>0.8653487684723035</v>
+        <v>0.7836670951707014</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38">
-        <v>0.8530058895570696</v>
+        <v>0.6490342219370417</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1121,13 +1121,13 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>0.7809250524698449</v>
+        <v>0.6457338745746422</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1138,13 +1138,13 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>0.7809250524698449</v>
+        <v>0.6175842099748474</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41">
-        <v>0.7608045277282232</v>
+        <v>0.5905445821336684</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>0.699623959145573</v>
+        <v>0.5847654626416238</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.6790997501017323</v>
+        <v>0.542896714030637</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1206,13 +1206,13 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
       </c>
       <c r="E44">
-        <v>0.6508364155969684</v>
+        <v>0.5417141503255747</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>0.6500665511677837</v>
+        <v>0.54167972816018</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.6439347117674395</v>
+        <v>0.54167972816018</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>0.6251650908611187</v>
+        <v>0.5255957390447944</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.6111227209122818</v>
+        <v>0.5250570745231887</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
       </c>
       <c r="E49">
-        <v>0.6076436202501999</v>
+        <v>0.5229004578945919</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.6075713204298717</v>
+        <v>0.4737763824101348</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>0.5913123959890826</v>
+        <v>0.4737763824101348</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52">
-        <v>0.5717718748968655</v>
+        <v>0.4669932437268297</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1359,13 +1359,13 @@
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
         <v>26</v>
       </c>
       <c r="E53">
-        <v>0.5613835722137897</v>
+        <v>0.4668270376807807</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>0.5601120336112039</v>
+        <v>0.4601789933084222</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E55">
-        <v>0.5600751829230749</v>
+        <v>0.453668847855502</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E56">
-        <v>0.5559594491425693</v>
+        <v>0.4332166357338327</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>0.5437149461664322</v>
+        <v>0.4239855411282005</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
       </c>
       <c r="E58">
-        <v>0.5153018199819837</v>
+        <v>0.4206029825646356</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>0.5097189259210998</v>
+        <v>0.4167867947374267</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4771187236136979</v>
+        <v>0.4149966532662911</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0.431072795232165</v>
+        <v>0.4132926454835735</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
       </c>
       <c r="E62">
-        <v>0.426907067221502</v>
+        <v>0.4065754713025655</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E63">
-        <v>0.4233798642302387</v>
+        <v>0.3999628340453527</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E64">
-        <v>0.4140053930504961</v>
+        <v>0.3946767920144683</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E65">
-        <v>0.4117560246324256</v>
+        <v>0.3939192985791676</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
       </c>
       <c r="E66">
-        <v>0.4049615282663891</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1597,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3965367313507601</v>
+        <v>0.3874595947079313</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.3931133089035376</v>
+        <v>0.3827795011754763</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3906404253283826</v>
+        <v>0.3809752682848803</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,7 +1645,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
@@ -1654,7 +1654,7 @@
         <v>26</v>
       </c>
       <c r="E70">
-        <v>0.3789630598829626</v>
+        <v>0.3796325882739319</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3779644730092272</v>
+        <v>0.3734780888468756</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.3714138184691619</v>
+        <v>0.3700064349504775</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
         <v>27</v>
       </c>
       <c r="E73">
-        <v>0.3606871027784511</v>
+        <v>0.3676073110469038</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3565734638058519</v>
+        <v>0.3631058272528684</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
         <v>28</v>
       </c>
       <c r="E75">
-        <v>0.3546169256378589</v>
+        <v>0.3622424009859132</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0.3499101007037518</v>
+        <v>0.3351326881511694</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
         <v>28</v>
       </c>
       <c r="E77">
-        <v>0.3437838028136669</v>
+        <v>0.3346791206215669</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>0.3425130781935564</v>
+        <v>0.3244414296431817</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E79">
-        <v>0.3409849772488762</v>
+        <v>0.3212499664930263</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1824,7 +1824,7 @@
         <v>28</v>
       </c>
       <c r="E80">
-        <v>0.3379647413595693</v>
+        <v>0.3180040336700213</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3366004505100284</v>
+        <v>0.312594786197267</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3259601202601324</v>
+        <v>0.3107277331329326</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
         <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E83">
-        <v>0.3222844034733005</v>
+        <v>0.2962315547683965</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>0.3145663343823245</v>
+        <v>0.2928956562331805</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>26</v>
       </c>
       <c r="E85">
-        <v>0.3107190223208503</v>
+        <v>0.2884905243702738</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E86">
-        <v>0.3105162135188238</v>
+        <v>0.287204219637229</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
         <v>28</v>
       </c>
       <c r="E87">
-        <v>0.2993562433740237</v>
+        <v>0.2866214533220436</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2953859950286837</v>
+        <v>0.2813400458435185</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2925461687094967</v>
+        <v>0.2795808568999172</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>0.2894062108834249</v>
+        <v>0.2793369912914532</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
         <v>28</v>
       </c>
       <c r="E91">
-        <v>0.2883786066758043</v>
+        <v>0.2765372761983789</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
         <v>28</v>
       </c>
       <c r="E92">
-        <v>0.2853244130671349</v>
+        <v>0.2753289566279268</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
         <v>27</v>
       </c>
       <c r="E93">
-        <v>0.2841324880411915</v>
+        <v>0.2749064372795947</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E94">
-        <v>0.283069258536149</v>
+        <v>0.2644925092225492</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E95">
-        <v>0.2796851909818195</v>
+        <v>0.2644343989375824</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>0.2760262237369417</v>
+        <v>0.2591605276744082</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E97">
-        <v>0.2701191016540535</v>
+        <v>0.2576876065771156</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E98">
-        <v>0.2651301766633065</v>
+        <v>0.2561232144834417</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E99">
-        <v>0.2598529724386168</v>
+        <v>0.2560259961417698</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
         <v>29</v>
       </c>
       <c r="E100">
-        <v>0.2592600174726401</v>
+        <v>0.2557540222068108</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
         <v>29</v>
       </c>
       <c r="E101">
-        <v>0.2590571563475308</v>
+        <v>0.2546639830597711</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2580060587594601</v>
+        <v>0.2537159959885497</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
       </c>
       <c r="E103">
-        <v>0.257322884490389</v>
+        <v>0.2535083116176622</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2561371857429486</v>
+        <v>0.2529442540312991</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E105">
-        <v>0.2558934085585224</v>
+        <v>0.2521737949652815</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E106">
-        <v>0.2546521044107589</v>
+        <v>0.252070618960119</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2528925707983768</v>
+        <v>0.2515829818829204</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
         <v>28</v>
       </c>
       <c r="E108">
-        <v>0.2516834932097207</v>
+        <v>0.2504235343925141</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E109">
-        <v>0.2513227333367891</v>
+        <v>0.2486732514521407</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2328,13 +2328,13 @@
         <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>29</v>
       </c>
       <c r="E110">
-        <v>0.2509993399935408</v>
+        <v>0.2450270466083948</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
         <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E111">
-        <v>0.25</v>
+        <v>0.2446636129690675</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E112">
-        <v>0.2492407855520013</v>
+        <v>0.2432947410543228</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.2479803477567594</v>
+        <v>0.2430790499630573</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>0.2460092316809848</v>
+        <v>0.2420901855829825</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
         <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>0.2460083221410362</v>
+        <v>0.2412253203385038</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2431864819215963</v>
+        <v>0.2396326260693498</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E117">
-        <v>0.2418129587226737</v>
+        <v>0.2391094040589495</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
         <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E118">
-        <v>0.2395188829419643</v>
+        <v>0.2388553952650435</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,7 +2478,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
@@ -2487,7 +2487,7 @@
         <v>28</v>
       </c>
       <c r="E119">
-        <v>0.2391372207631544</v>
+        <v>0.2375721181194627</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E120">
-        <v>0.2374837906484433</v>
+        <v>0.237137284341108</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.2369544552813769</v>
+        <v>0.2364425789878346</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,7 +2529,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
         <v>20</v>
@@ -2538,7 +2538,7 @@
         <v>28</v>
       </c>
       <c r="E122">
-        <v>0.2351717933143186</v>
+        <v>0.2352460814908937</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E123">
-        <v>0.2328737909172088</v>
+        <v>0.2352359844484823</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E124">
-        <v>0.231708574429197</v>
+        <v>0.2337852968974794</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2300258880054087</v>
+        <v>0.2334865705514848</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2296315186238057</v>
+        <v>0.2308640766203269</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D127" t="s">
         <v>28</v>
       </c>
       <c r="E127">
-        <v>0.2291046865872053</v>
+        <v>0.2305504994563022</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E128">
-        <v>0.2289898229760481</v>
+        <v>0.2303163062026109</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>0.2289527349448126</v>
+        <v>0.229274285550555</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2289285480697909</v>
+        <v>0.2281157063790979</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2262470046280451</v>
+        <v>0.2251928756272313</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2260967095516944</v>
+        <v>0.2250473320714842</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2245603491878084</v>
+        <v>0.2245228864204835</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2241781655277891</v>
+        <v>0.2243129687324823</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E135">
-        <v>0.2233792480462646</v>
+        <v>0.2240568436875932</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E136">
-        <v>0.2233638021922389</v>
+        <v>0.2230881234349691</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
         <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E137">
-        <v>0.2222071523137797</v>
+        <v>0.2226570351876786</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
         <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E138">
-        <v>0.2221464589611215</v>
+        <v>0.2211224259696253</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2821,13 +2821,13 @@
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E139">
-        <v>0.2215282957831304</v>
+        <v>0.2204706750695434</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E140">
-        <v>0.22136706071676</v>
+        <v>0.2197714866300337</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2201371852727846</v>
+        <v>0.2197661979838783</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
         <v>29</v>
       </c>
       <c r="E142">
-        <v>0.2199451822890299</v>
+        <v>0.2180355322647336</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
         <v>29</v>
       </c>
       <c r="E143">
-        <v>0.219862059932442</v>
+        <v>0.2179970898178923</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>0.2196655407613192</v>
+        <v>0.2171012366015951</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0.2189430169216283</v>
+        <v>0.2156079355800478</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,7 +2937,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
         <v>23</v>
@@ -2946,7 +2946,7 @@
         <v>28</v>
       </c>
       <c r="E146">
-        <v>0.216981142968387</v>
+        <v>0.2153200668067727</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,7 +2954,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>18</v>
@@ -2963,7 +2963,7 @@
         <v>29</v>
       </c>
       <c r="E147">
-        <v>0.2156728449193871</v>
+        <v>0.2146702474254244</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
         <v>28</v>
       </c>
       <c r="E148">
-        <v>0.2154975244494819</v>
+        <v>0.2131859999967195</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E149">
-        <v>0.2150228720232333</v>
+        <v>0.2128751514880318</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.2143484152386352</v>
+        <v>0.2127007522601018</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,7 +3022,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
         <v>24</v>
@@ -3031,7 +3031,7 @@
         <v>28</v>
       </c>
       <c r="E151">
-        <v>0.2131119856113368</v>
+        <v>0.2119310532920179</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E152">
-        <v>0.2130102357133388</v>
+        <v>0.2101111889933775</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E153">
-        <v>0.2083504237767734</v>
+        <v>0.2094662206649286</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
       </c>
       <c r="E154">
-        <v>0.2081107312600051</v>
+        <v>0.208271166451597</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E155">
-        <v>0.2067648814410306</v>
+        <v>0.2068338917791361</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.206393535945665</v>
+        <v>0.2039628169171413</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,7 +3124,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>24</v>
@@ -3133,7 +3133,7 @@
         <v>29</v>
       </c>
       <c r="E157">
-        <v>0.2049854851949252</v>
+        <v>0.2037106462148751</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E158">
-        <v>0.2047982973214756</v>
+        <v>0.2025287202587393</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.2045969936094863</v>
+        <v>0.2017154429667712</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,7 +3175,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>23</v>
@@ -3184,7 +3184,7 @@
         <v>29</v>
       </c>
       <c r="E160">
-        <v>0.2037684257554342</v>
+        <v>0.2013243588498911</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3195,13 +3195,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E161">
-        <v>0.2034509851837376</v>
+        <v>0.2011022504810105</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
         <v>29</v>
       </c>
       <c r="E162">
-        <v>0.2025654445696642</v>
+        <v>0.1970616387834902</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
         <v>28</v>
       </c>
       <c r="E163">
-        <v>0.2015937379576222</v>
+        <v>0.1960209698799034</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D164" t="s">
         <v>28</v>
       </c>
       <c r="E164">
-        <v>0.2012569753351479</v>
+        <v>0.1953256542774285</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E165">
-        <v>0.2010413583381433</v>
+        <v>0.1943399260379257</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E166">
-        <v>0.2004736339275913</v>
+        <v>0.1933555279939536</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E167">
-        <v>0.2002318852093154</v>
+        <v>0.1922765138783893</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E168">
-        <v>0.1985166667941861</v>
+        <v>0.1917853205941537</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E169">
-        <v>0.1977238003935762</v>
+        <v>0.1908430077159791</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E170">
-        <v>0.1961161351381841</v>
+        <v>0.1901445497109816</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E171">
-        <v>0.1961161351381841</v>
+        <v>0.1877984987607598</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D172" t="s">
         <v>28</v>
       </c>
       <c r="E172">
-        <v>0.196084713922657</v>
+        <v>0.1877200498549588</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1957890020745122</v>
+        <v>0.1875330066857683</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3416,13 +3416,13 @@
         <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E174">
-        <v>0.1957467248093284</v>
+        <v>0.1860968420796942</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D175" t="s">
         <v>26</v>
       </c>
       <c r="E175">
-        <v>0.1944866553305261</v>
+        <v>0.1846341582574426</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
         <v>28</v>
       </c>
       <c r="E176">
-        <v>0.1933722491981909</v>
+        <v>0.1838023004559311</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
         <v>26</v>
       </c>
       <c r="E177">
-        <v>0.1932105502866794</v>
+        <v>0.1835592014152327</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1924217538509243</v>
+        <v>0.1830328535564512</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E179">
-        <v>0.1917853205941537</v>
+        <v>0.1798848358401943</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E180">
-        <v>0.1917853205941537</v>
+        <v>0.1798564669458291</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E181">
-        <v>0.1913129331946584</v>
+        <v>0.1778168708552939</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E182">
-        <v>0.1910300248210575</v>
+        <v>0.1772704476390518</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E183">
-        <v>0.1904179943271179</v>
+        <v>0.17701483961865</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>0.1881465679768373</v>
+        <v>0.1759279010894078</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E185">
-        <v>0.1874590387761362</v>
+        <v>0.1746021008690707</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D186" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E186">
-        <v>0.1833895137996639</v>
+        <v>0.1745917093264494</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1818034223807535</v>
+        <v>0.1742061509162205</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E188">
-        <v>0.1810851137790259</v>
+        <v>0.1730124941195144</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E189">
-        <v>0.1802003430661127</v>
+        <v>0.1727672786741706</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D190" t="s">
         <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1793073292270854</v>
+        <v>0.1727312418120514</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E191">
-        <v>0.1782252139151289</v>
+        <v>0.1726440925784085</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E192">
-        <v>0.1781492853011776</v>
+        <v>0.1720551083113477</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D193" t="s">
         <v>26</v>
       </c>
       <c r="E193">
-        <v>0.1781492853011776</v>
+        <v>0.1715437979620791</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s">
         <v>26</v>
       </c>
       <c r="E194">
-        <v>0.1781492853011776</v>
+        <v>0.1713700063031559</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3773,13 +3773,13 @@
         <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E195">
-        <v>0.1754807873900419</v>
+        <v>0.1702188918791733</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D196" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1750774146830315</v>
+        <v>0.1698990845619485</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D197" t="s">
         <v>28</v>
       </c>
       <c r="E197">
-        <v>0.1734003747948545</v>
+        <v>0.1662786677645743</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D198" t="s">
         <v>28</v>
       </c>
       <c r="E198">
-        <v>0.1726373001906276</v>
+        <v>0.1661400590459707</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E199">
-        <v>0.1723233298335647</v>
+        <v>0.1642995247115115</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E200">
-        <v>0.1714171738367561</v>
+        <v>0.1628655854961142</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E201">
-        <v>0.1705099366088809</v>
+        <v>0.1628655854961142</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C202" t="s">
         <v>20</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E202">
-        <v>0.1703232534409103</v>
+        <v>0.1623340056452537</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0.1690675448954168</v>
+        <v>0.1611320576556018</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D204" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E204">
-        <v>0.1685986340848007</v>
+        <v>0.1575060262534323</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E205">
-        <v>0.168038670647888</v>
+        <v>0.1559345346945468</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E206">
-        <v>0.1656135986949966</v>
+        <v>0.1554100933198374</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1634879769598842</v>
+        <v>0.1549457890494328</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E208">
-        <v>0.1632076661618884</v>
+        <v>0.1544079269649215</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E209">
-        <v>0.1622252999520132</v>
+        <v>0.1540062871804013</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D210" t="s">
         <v>27</v>
       </c>
       <c r="E210">
-        <v>0.1615389268683938</v>
+        <v>0.1516317423671141</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E211">
-        <v>0.1613060397923018</v>
+        <v>0.1497172262737601</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1605925583686771</v>
+        <v>0.1481664263178635</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D213" t="s">
         <v>26</v>
       </c>
       <c r="E213">
-        <v>0.1601884998233612</v>
+        <v>0.1480125682011424</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E214">
-        <v>0.1596278078836093</v>
+        <v>0.1476635909567291</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D215" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E215">
-        <v>0.1588671316756656</v>
+        <v>0.1465554347636884</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4130,13 +4130,13 @@
         <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E216">
-        <v>0.1574515431167733</v>
+        <v>0.1453913530606804</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E217">
-        <v>0.1555132252384804</v>
+        <v>0.1426006004429102</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D218" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E218">
-        <v>0.1554756729076975</v>
+        <v>0.142413031215518</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D219" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E219">
-        <v>0.1545626147178787</v>
+        <v>0.1422732140693245</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D220" t="s">
         <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1539245767648514</v>
+        <v>0.1422713662399988</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D221" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1521765913957621</v>
+        <v>0.1422415763206895</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E222">
-        <v>0.1516589970786832</v>
+        <v>0.1409356334081648</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4255,7 +4255,7 @@
         <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1515350074377585</v>
+        <v>0.1407356437912892</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E224">
-        <v>0.151307743639408</v>
+        <v>0.1403635680728278</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D225" t="s">
         <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1512167231221145</v>
+        <v>0.139939954689264</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E226">
-        <v>0.1499742063906808</v>
+        <v>0.1398288636584602</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1481094694803926</v>
+        <v>0.1396123067009174</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1477310588451413</v>
+        <v>0.1394595902767301</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4351,13 +4351,13 @@
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>29</v>
       </c>
       <c r="E229">
-        <v>0.146223364972489</v>
+        <v>0.1392898694813114</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4368,13 +4368,13 @@
         <v>6</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1459836093903046</v>
+        <v>0.1392851086129517</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E231">
-        <v>0.1445563437963577</v>
+        <v>0.1389017669854203</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D232" t="s">
         <v>29</v>
       </c>
       <c r="E232">
-        <v>0.1445349252465872</v>
+        <v>0.13877654302302</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D233" t="s">
         <v>29</v>
       </c>
       <c r="E233">
-        <v>0.1434144613733459</v>
+        <v>0.1382277847738242</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
         <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1432742777225811</v>
+        <v>0.1381366025753649</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C235" t="s">
         <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E235">
-        <v>0.1427399904240285</v>
+        <v>0.1376505242331415</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D236" t="s">
         <v>28</v>
       </c>
       <c r="E236">
-        <v>0.1426983588426392</v>
+        <v>0.1367672322268013</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4487,13 +4487,13 @@
         <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E237">
-        <v>0.1426758867477349</v>
+        <v>0.1366066403493252</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E238">
-        <v>0.1416028916179186</v>
+        <v>0.1364076437587602</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D239" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E239">
-        <v>0.1409654405056092</v>
+        <v>0.1363988830809573</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E240">
-        <v>0.1406899024787201</v>
+        <v>0.1362494395490176</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D241" t="s">
         <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1403828811504951</v>
+        <v>0.135754785100248</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D242" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1402403010649191</v>
+        <v>0.1356352964953991</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>22</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E243">
-        <v>0.1402195288713937</v>
+        <v>0.1352631038883065</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D244" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1401306984618217</v>
+        <v>0.1345635924892727</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4623,13 +4623,13 @@
         <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E245">
-        <v>0.1392698733696827</v>
+        <v>0.1342005346584653</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D246" t="s">
         <v>29</v>
       </c>
       <c r="E246">
-        <v>0.1392035819106503</v>
+        <v>0.1340304861617165</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>24</v>
       </c>
       <c r="D247" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E247">
-        <v>0.1389977056390698</v>
+        <v>0.1340282108116163</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D248" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E248">
-        <v>0.1388805174892837</v>
+        <v>0.1337764617306663</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E249">
-        <v>0.1384665540012023</v>
+        <v>0.1332907100391979</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C250" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D250" t="s">
         <v>29</v>
       </c>
       <c r="E250">
-        <v>0.13824899770057</v>
+        <v>0.1331214176301142</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E251">
-        <v>0.1373862636234939</v>
+        <v>0.1330313321905566</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D252" t="s">
         <v>28</v>
       </c>
       <c r="E252">
-        <v>0.1367540918638692</v>
+        <v>0.1329935167378849</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D253" t="s">
         <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1366682490166168</v>
+        <v>0.1325834553070093</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D254" t="s">
         <v>29</v>
       </c>
       <c r="E254">
-        <v>0.1360627816611481</v>
+        <v>0.1324650838620852</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C255" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D255" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E255">
-        <v>0.1360053039304326</v>
+        <v>0.1319527533021261</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D256" t="s">
         <v>29</v>
       </c>
       <c r="E256">
-        <v>0.1356360219761029</v>
+        <v>0.1317496334444737</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1353736645869776</v>
+        <v>0.1316229471642346</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D258" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E258">
-        <v>0.1352192354573625</v>
+        <v>0.1308710249820896</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4861,13 +4861,13 @@
         <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E259">
-        <v>0.1348989436843914</v>
+        <v>0.1305981535228985</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D260" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E260">
-        <v>0.1342359966213842</v>
+        <v>0.1296618684546347</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D261" t="s">
         <v>27</v>
       </c>
       <c r="E261">
-        <v>0.1330414972171026</v>
+        <v>0.1296021984389468</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4918,7 +4918,7 @@
         <v>29</v>
       </c>
       <c r="E262">
-        <v>0.13230281712683</v>
+        <v>0.1295417465560743</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D263" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E263">
-        <v>0.1315235585947619</v>
+        <v>0.1295287053683334</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C264" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D264" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E264">
-        <v>0.130970744116402</v>
+        <v>0.1293599886884023</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D265" t="s">
         <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1308072914641809</v>
+        <v>0.1287254907806762</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C266" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1302514953053993</v>
+        <v>0.1286282098989418</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C267" t="s">
         <v>21</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E267">
-        <v>0.1298276633839804</v>
+        <v>0.1273917823983383</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C268" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D268" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1295667226552825</v>
+        <v>0.125852606723611</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D269" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1295473266378179</v>
+        <v>0.1258314121863932</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C270" t="s">
         <v>23</v>
       </c>
       <c r="D270" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E270">
-        <v>0.1288876853454392</v>
+        <v>0.1248719090283335</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D271" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1288305826800059</v>
+        <v>0.1245511310578345</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C272" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D272" t="s">
         <v>29</v>
       </c>
       <c r="E272">
-        <v>0.1287124697913096</v>
+        <v>0.1238675665500048</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C273" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E273">
-        <v>0.1283262815155607</v>
+        <v>0.1235748687439237</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D274" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E274">
-        <v>0.127887780624286</v>
+        <v>0.1233279811855102</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C275" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D275" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E275">
-        <v>0.1278131096425848</v>
+        <v>0.1221566135499217</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C276" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D276" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E276">
-        <v>0.1276716909045351</v>
+        <v>0.1221146571345291</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C277" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D277" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E277">
-        <v>0.1275779258943408</v>
+        <v>0.1219899593262679</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C278" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D278" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E278">
-        <v>0.127519384937116</v>
+        <v>0.1207644066131915</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D279" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E279">
-        <v>0.127086843768431</v>
+        <v>0.1191358833344466</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C280" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E280">
-        <v>0.1246136260972068</v>
+        <v>0.1188747164118371</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C281" t="s">
         <v>21</v>
       </c>
       <c r="D281" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E281">
-        <v>0.1245383258910593</v>
+        <v>0.1188703899192216</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C282" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E282">
-        <v>0.1240656224314892</v>
+        <v>0.1187732356001367</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C283" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E283">
-        <v>0.1220054443335892</v>
+        <v>0.1185949131151844</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D284" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E284">
-        <v>0.1214554328895548</v>
+        <v>0.1171269488747245</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D285" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E285">
-        <v>0.1213727415943568</v>
+        <v>0.1169611905552689</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C286" t="s">
         <v>21</v>
       </c>
       <c r="D286" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1211244781595902</v>
+        <v>0.116799446580905</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C287" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D287" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E287">
-        <v>0.1207124993131752</v>
+        <v>0.1160746286730382</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C288" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D288" t="s">
         <v>28</v>
       </c>
       <c r="E288">
-        <v>0.1202619979133121</v>
+        <v>0.1160282532170618</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C289" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D289" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1193549534558953</v>
+        <v>0.1153580428548192</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D290" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E290">
-        <v>0.1192936618017665</v>
+        <v>0.115213278825893</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C291" t="s">
         <v>24</v>
       </c>
       <c r="D291" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E291">
-        <v>0.1191485060701192</v>
+        <v>0.1150131472177408</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D292" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E292">
-        <v>0.1191176191915206</v>
+        <v>0.1142465489880976</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D293" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E293">
-        <v>0.118837493222638</v>
+        <v>0.1133634683327921</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C294" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D294" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E294">
-        <v>0.1184456151061175</v>
+        <v>0.1128868593591842</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D295" t="s">
         <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1184428758851208</v>
+        <v>0.1126982751028638</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C296" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D296" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E296">
-        <v>0.1178832971527771</v>
+        <v>0.1119683468163437</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D297" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E297">
-        <v>0.1170720395861799</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5524,13 +5524,13 @@
         <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D298" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E298">
-        <v>0.1163509927469886</v>
+        <v>0.1117304973987617</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C299" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D299" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E299">
-        <v>0.1160853826712983</v>
+        <v>0.1117208653765674</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C300" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D300" t="s">
         <v>28</v>
       </c>
       <c r="E300">
-        <v>0.1154047203744171</v>
+        <v>0.1116682768625674</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D301" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E301">
-        <v>0.1146090832674936</v>
+        <v>0.1115008180796557</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D302" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E302">
-        <v>0.1135605170333236</v>
+        <v>0.1115008180796557</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C303" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D303" t="s">
         <v>28</v>
       </c>
       <c r="E303">
-        <v>0.1134319790874233</v>
+        <v>0.1111101690633765</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C304" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D304" t="s">
         <v>27</v>
       </c>
       <c r="E304">
-        <v>0.1128760622029075</v>
+        <v>0.1106594900166794</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C305" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D305" t="s">
         <v>27</v>
       </c>
       <c r="E305">
-        <v>0.1125302358263394</v>
+        <v>0.1102194973491893</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E306">
-        <v>0.1118460214515351</v>
+        <v>0.1101090649662977</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C307" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D307" t="s">
         <v>28</v>
       </c>
       <c r="E307">
-        <v>0.1115704863322877</v>
+        <v>0.1095861740650768</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C308" t="s">
         <v>22</v>
       </c>
       <c r="D308" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E308">
-        <v>0.1106602979039214</v>
+        <v>0.1092405022756867</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D309" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E309">
-        <v>0.1099545160977364</v>
+        <v>0.1086957297890801</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C310" t="s">
         <v>24</v>
       </c>
       <c r="D310" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E310">
-        <v>0.1099116371290889</v>
+        <v>0.1084174082461575</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C311" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E311">
-        <v>0.1093457894070968</v>
+        <v>0.1084174082461575</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D312" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E312">
-        <v>0.1085126105478309</v>
+        <v>0.1084174082461575</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C313" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D313" t="s">
         <v>27</v>
       </c>
       <c r="E313">
-        <v>0.1080192116371823</v>
+        <v>0.1082977149423219</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C314" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D314" t="s">
         <v>27</v>
       </c>
       <c r="E314">
-        <v>0.1074571664540702</v>
+        <v>0.108270019118906</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C315" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D315" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E315">
-        <v>0.1071933264815465</v>
+        <v>0.1080912290467727</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D316" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E316">
-        <v>0.1063265822196438</v>
+        <v>0.1073558214830775</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C317" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D317" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E317">
-        <v>0.1063056150075311</v>
+        <v>0.1064155355650761</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C318" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D318" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E318">
-        <v>0.10626532549515</v>
+        <v>0.1058544997944407</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D319" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E319">
-        <v>0.1062028112130733</v>
+        <v>0.1058211505749409</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D320" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E320">
-        <v>0.1056519670135453</v>
+        <v>0.1057611599849613</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C321" t="s">
         <v>21</v>
       </c>
       <c r="D321" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E321">
-        <v>0.1054751049675869</v>
+        <v>0.1049202546845084</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5932,13 +5932,13 @@
         <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D322" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E322">
-        <v>0.1051879552340501</v>
+        <v>0.1041918177806879</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C323" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D323" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E323">
-        <v>0.1039952450216977</v>
+        <v>0.1035493369817115</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D324" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E324">
-        <v>0.1024020322423493</v>
+        <v>0.1025440215951518</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C325" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D325" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E325">
-        <v>0.1021541943447633</v>
+        <v>0.1003691456639347</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C326" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D326" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E326">
-        <v>0.1021173200830833</v>
+        <v>0.1002186551658886</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D327" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E327">
-        <v>0.1014292682989248</v>
+        <v>0.09992929074942927</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C328" t="s">
         <v>24</v>
       </c>
       <c r="D328" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E328">
-        <v>0.0989806445349888</v>
+        <v>0.09924555880363367</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D329" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E329">
-        <v>0.09633483644980295</v>
+        <v>0.09919814020775344</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C330" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D330" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E330">
-        <v>0.09598255982288317</v>
+        <v>0.0991163065972149</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C331" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D331" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E331">
-        <v>0.09525494428006427</v>
+        <v>0.09880774311492595</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D332" t="s">
         <v>28</v>
       </c>
       <c r="E332">
-        <v>0.09513715130392127</v>
+        <v>0.09879492137643435</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C333" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09512615234252676</v>
+        <v>0.09627006604753549</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6136,13 +6136,13 @@
         <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D334" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E334">
-        <v>0.09506062911245297</v>
+        <v>0.09610423820557323</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D335" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E335">
-        <v>0.09433822913693256</v>
+        <v>0.09270972098931662</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C336" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D336" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E336">
-        <v>0.09418774082399028</v>
+        <v>0.09181719120582504</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C337" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D337" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E337">
-        <v>0.09389739202210309</v>
+        <v>0.09177147845605189</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C338" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D338" t="s">
         <v>28</v>
       </c>
       <c r="E338">
-        <v>0.09351709944848777</v>
+        <v>0.09138422808099106</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C339" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D339" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E339">
-        <v>0.0930368951384635</v>
+        <v>0.09061695521456702</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C340" t="s">
         <v>25</v>
       </c>
       <c r="D340" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E340">
-        <v>0.0905187359853855</v>
+        <v>0.0894143970875588</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C341" t="s">
         <v>19</v>
       </c>
       <c r="D341" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E341">
-        <v>0.08447087986091313</v>
+        <v>0.08929841877718284</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C342" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D342" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E342">
-        <v>0.08324432451678242</v>
+        <v>0.08774986938939175</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D343" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E343">
-        <v>0.08291160174387069</v>
+        <v>0.08710374839086239</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C344" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D344" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E344">
-        <v>0.0819679515765394</v>
+        <v>0.08358214825542848</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D345" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E345">
-        <v>0.08051300552065116</v>
+        <v>0.08334027297692589</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C346" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D346" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E346">
-        <v>0.08031013177145405</v>
+        <v>0.08331545229026055</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D347" t="s">
         <v>28</v>
       </c>
       <c r="E347">
-        <v>0.08002420997902898</v>
+        <v>0.08331296526124123</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D348" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E348">
-        <v>0.07993806818070616</v>
+        <v>0.08327908167012615</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C349" t="s">
         <v>22</v>
       </c>
       <c r="D349" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E349">
-        <v>0.07906569987111657</v>
+        <v>0.08245286931877618</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E350">
-        <v>0.07733948587178618</v>
+        <v>0.08004761438237583</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C351" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D351" t="s">
         <v>28</v>
       </c>
       <c r="E351">
-        <v>0.07634003035020556</v>
+        <v>0.07977096103695919</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C352" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D352" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E352">
-        <v>0.07557933404229268</v>
+        <v>0.07792638551221603</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6459,13 +6459,13 @@
         <v>17</v>
       </c>
       <c r="C353" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E353">
-        <v>0.07459263414728287</v>
+        <v>0.07775385946019456</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C354" t="s">
         <v>22</v>
       </c>
       <c r="D354" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E354">
-        <v>0.07454458276095892</v>
+        <v>0.07705164176648809</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C355" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D355" t="s">
         <v>29</v>
       </c>
       <c r="E355">
-        <v>0.07365907745871919</v>
+        <v>0.07603074660670281</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D356" t="s">
         <v>29</v>
       </c>
       <c r="E356">
-        <v>0.07211008928889387</v>
+        <v>0.07571001411149632</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D357" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E357">
-        <v>0.07134270516206161</v>
+        <v>0.07386547822779795</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C358" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D358" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.07118830378976095</v>
+        <v>0.07369316357830816</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C359" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D359" t="s">
         <v>29</v>
       </c>
       <c r="E359">
-        <v>0.07082219636262932</v>
+        <v>0.07342257736974395</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C360" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D360" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E360">
-        <v>0.07080000803800492</v>
+        <v>0.07313166918828616</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C361" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D361" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E361">
-        <v>0.07077790293518443</v>
+        <v>0.07222786414954488</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C362" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D362" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E362">
-        <v>0.07005230699545156</v>
+        <v>0.07217666124517146</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C363" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D363" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E363">
-        <v>0.06910879961807329</v>
+        <v>0.07200614438488713</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6646,13 +6646,13 @@
         <v>17</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D364" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E364">
-        <v>0.06853023700992532</v>
+        <v>0.07150631592822536</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C365" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D365" t="s">
         <v>29</v>
       </c>
       <c r="E365">
-        <v>0.06612510265240802</v>
+        <v>0.07049329958162973</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C366" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D366" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E366">
-        <v>0.06453744692206963</v>
+        <v>0.07036566116406805</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C367" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D367" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E367">
-        <v>0.06358016733130123</v>
+        <v>0.07035396432010727</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C368" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D368" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06324368855099739</v>
+        <v>0.07017990963739988</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C369" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D369" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E369">
-        <v>0.06301663957215974</v>
+        <v>0.07004000271852426</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C370" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D370" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E370">
-        <v>0.06270923849673657</v>
+        <v>0.06727606158507911</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C371" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D371" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E371">
-        <v>0.0614972393595548</v>
+        <v>0.06709748938438848</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C372" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D372" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E372">
-        <v>0.06137107080771872</v>
+        <v>0.0640045233953718</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C373" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D373" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E373">
-        <v>0.0610585086084488</v>
+        <v>0.06134338877059153</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C374" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D374" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E374">
-        <v>0.05992655394473834</v>
+        <v>0.05873539961592939</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6833,13 +6833,13 @@
         <v>7</v>
       </c>
       <c r="C375" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D375" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E375">
-        <v>0.05826510220473057</v>
+        <v>0.05838196085967685</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C376" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D376" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E376">
-        <v>0.0554579473598119</v>
+        <v>0.05810957114754632</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C377" t="s">
         <v>24</v>
       </c>
       <c r="D377" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E377">
-        <v>0.05458894532084702</v>
+        <v>0.05737258609759681</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C378" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D378" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E378">
-        <v>0.03486385141440164</v>
+        <v>0.05624490246915478</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D379" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E379">
-        <v>0.02504799901966108</v>
+        <v>0.056093754921556</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D380" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E380">
-        <v>0.02237329079339983</v>
+        <v>0.05244857578760741</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C381" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D381" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E381">
-        <v>0.01764188304281863</v>
+        <v>0.04872914242167226</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C382" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D382" t="s">
         <v>26</v>
       </c>
       <c r="E382">
-        <v>0</v>
+        <v>0.04364072212185414</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C383" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D383" t="s">
         <v>26</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>0.03205647556165552</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C384" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D384" t="s">
         <v>26</v>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>0.02997850050977057</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7003,13 +7003,13 @@
         <v>17</v>
       </c>
       <c r="C385" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D385" t="s">
         <v>26</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>0.0228518963429418</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,13 +7017,13 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C386" t="s">
         <v>25</v>
       </c>
       <c r="D386" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E386">
         <v>0</v>
@@ -7034,13 +7034,13 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C387" t="s">
         <v>25</v>
       </c>
       <c r="D387" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E387">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C388" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D388" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -7071,10 +7071,10 @@
         <v>6</v>
       </c>
       <c r="C389" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D389" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -7085,13 +7085,13 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C390" t="s">
         <v>25</v>
       </c>
       <c r="D390" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E390">
         <v>0</v>
@@ -7102,13 +7102,13 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C391" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D391" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -7119,13 +7119,13 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C392" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D392" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -7136,13 +7136,13 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C393" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D393" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C394" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D394" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -7170,13 +7170,13 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C395" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D395" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -7187,13 +7187,13 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C396" t="s">
         <v>21</v>
       </c>
       <c r="D396" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E396">
         <v>0</v>
@@ -7204,13 +7204,13 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C397" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D397" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -7221,13 +7221,13 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C398" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D398" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -7238,13 +7238,13 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C399" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D399" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -7255,13 +7255,13 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C400" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D400" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -7272,13 +7272,13 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C401" t="s">
         <v>25</v>
       </c>
       <c r="D401" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -7289,13 +7289,13 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C402" t="s">
         <v>21</v>
       </c>
       <c r="D402" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C403" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D403" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -7323,13 +7323,13 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C404" t="s">
         <v>25</v>
       </c>
       <c r="D404" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -7340,13 +7340,13 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C405" t="s">
         <v>25</v>
       </c>
       <c r="D405" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E405">
         <v>0</v>
@@ -7357,13 +7357,13 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C406" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D406" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E406">
         <v>0</v>
@@ -7377,10 +7377,10 @@
         <v>11</v>
       </c>
       <c r="C407" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D407" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E407">
         <v>0</v>
@@ -7394,10 +7394,10 @@
         <v>7</v>
       </c>
       <c r="C408" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D408" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E408">
         <v>0</v>
@@ -7408,13 +7408,13 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C409" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D409" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -7425,13 +7425,13 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C410" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D410" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -7442,13 +7442,13 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C411" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D411" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -7459,13 +7459,13 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C412" t="s">
         <v>21</v>
       </c>
       <c r="D412" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E412">
         <v>0</v>
@@ -7476,13 +7476,13 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C413" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D413" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E413">
         <v>0</v>
@@ -7493,13 +7493,13 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C414" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D414" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -7510,13 +7510,13 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C415" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D415" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -7527,13 +7527,13 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C416" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D416" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E416">
         <v>0</v>
@@ -7544,13 +7544,13 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C417" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D417" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E417">
         <v>0</v>
